--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Downloads/metadata template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D68CA221-3B16-704B-A5F0-DE6707F29C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D47D52-388C-9144-A704-F4E2F6B1EC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33840" yWindow="-20360" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -74,6 +74,54 @@
   </si>
   <si>
     <t>attribute_name</t>
+  </si>
+  <si>
+    <t>sample_id</t>
+  </si>
+  <si>
+    <t>sample_date</t>
+  </si>
+  <si>
+    <t>sample_time</t>
+  </si>
+  <si>
+    <t>station_code</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>trap_fishing</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>flow_start_meter</t>
+  </si>
+  <si>
+    <t>flow_end_meter</t>
+  </si>
+  <si>
+    <t>start_county</t>
+  </si>
+  <si>
+    <t>velocity</t>
+  </si>
+  <si>
+    <t>turbidity</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>07:43:00</t>
+  </si>
+  <si>
+    <t>14:07:00</t>
   </si>
 </sst>
 </file>
@@ -128,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -143,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -527,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG10"/>
+  <dimension ref="A1:AMG13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,14 +642,81 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D47D52-388C-9144-A704-F4E2F6B1EC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982196EB-4830-B544-B826-D9ADDBAF1B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33840" yWindow="-20360" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -103,9 +103,6 @@
     <t>flow_end_meter</t>
   </si>
   <si>
-    <t>start_county</t>
-  </si>
-  <si>
     <t>velocity</t>
   </si>
   <si>
@@ -122,6 +119,79 @@
   </si>
   <si>
     <t>14:07:00</t>
+  </si>
+  <si>
+    <t>Sample Identifier</t>
+  </si>
+  <si>
+    <t>Date sample was taken</t>
+  </si>
+  <si>
+    <t>Time sample was taken</t>
+  </si>
+  <si>
+    <t>Reading on the rotation counter</t>
+  </si>
+  <si>
+    <t>Reading on the flow meter at start</t>
+  </si>
+  <si>
+    <t>Reading on the flow meter at end</t>
+  </si>
+  <si>
+    <t>start_counter</t>
+  </si>
+  <si>
+    <t>Reading on the rotation counter at the end of the trap visit</t>
+  </si>
+  <si>
+    <t>Water velocity measured at trap</t>
+  </si>
+  <si>
+    <t>Turbidity measured at trap</t>
+  </si>
+  <si>
+    <t>ordinal</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>HH:MM:SS</t>
+  </si>
+  <si>
+    <t>YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Code referring to the station where the sample was taken. Levels = c("UBC", "LCC", "UCC")</t>
+  </si>
+  <si>
+    <t>Location the sample was taken. Levels = c("Upper Battle Creek", "Lower Clear Creek", "Upper Clear Creek"
+)</t>
+  </si>
+  <si>
+    <t>enumerated</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>revolutionsPerMinute</t>
+  </si>
+  <si>
+    <t>feetPerSecond</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>real</t>
   </si>
 </sst>
 </file>
@@ -282,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -570,7 +640,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -581,7 +651,7 @@
   <dimension ref="A1:AMG13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,6 +716,15 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="7"/>
@@ -654,68 +733,224 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="L3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="L4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="119" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="5">
+        <v>381</v>
+      </c>
+      <c r="M8" s="5">
+        <v>115577</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="5">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="H10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>709829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0.67267580000000005</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3.2650312000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="M13" s="5">
+        <v>5.03</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982196EB-4830-B544-B826-D9ADDBAF1B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3884D653-F22D-064C-B71F-9B708C740E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33840" yWindow="-20360" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -651,7 +651,7 @@
   <dimension ref="A1:AMG13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3884D653-F22D-064C-B71F-9B708C740E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097D528-98E8-564B-91D2-6FCC55AD2BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33840" yWindow="-20360" windowWidth="30240" windowHeight="18880" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="1420" windowWidth="30240" windowHeight="17360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -246,26 +246,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,308 +637,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" style="1"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="19.6640625" style="2"/>
+    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="5" customWidth="1"/>
-    <col min="14" max="1021" width="19.6640625" style="1"/>
-    <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="4" customWidth="1"/>
+    <col min="14" max="1021" width="19.6640625" style="2"/>
+    <col min="1022" max="1024" width="8.33203125" style="2" customWidth="1"/>
+    <col min="1025" max="16384" width="19.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="119" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>381</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <v>115577</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <v>700000</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
+      <c r="G10" s="7"/>
+      <c r="H10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <v>709829</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>0.67267580000000005</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>3.2650312000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>0.93</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <v>5.03</v>
       </c>
     </row>
@@ -986,19 +974,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7097D528-98E8-564B-91D2-6FCC55AD2BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459551C9-75A1-E84C-A005-C863B038BB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1420" windowWidth="30240" windowHeight="17360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -88,9 +88,6 @@
     <t>station_code</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>trap_fishing</t>
   </si>
   <si>
@@ -109,18 +106,6 @@
     <t>turbidity</t>
   </si>
   <si>
-    <t>2022-10-01</t>
-  </si>
-  <si>
-    <t>2022-11-21</t>
-  </si>
-  <si>
-    <t>07:43:00</t>
-  </si>
-  <si>
-    <t>14:07:00</t>
-  </si>
-  <si>
     <t>Sample Identifier</t>
   </si>
   <si>
@@ -172,44 +157,193 @@
     <t>Code referring to the station where the sample was taken. Levels = c("UBC", "LCC", "UCC")</t>
   </si>
   <si>
-    <t>Location the sample was taken. Levels = c("Upper Battle Creek", "Lower Clear Creek", "Upper Clear Creek"
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>revolutionsPerMinute</t>
+  </si>
+  <si>
+    <t>feetPerSecond</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>depth_adjust</t>
+  </si>
+  <si>
+    <t>avg_time_per_rev</t>
+  </si>
+  <si>
+    <t>flow_set_time</t>
+  </si>
+  <si>
+    <t>river_left_depth</t>
+  </si>
+  <si>
+    <t>river_center_depth</t>
+  </si>
+  <si>
+    <t>river_right_depth</t>
+  </si>
+  <si>
+    <t>thalweg</t>
+  </si>
+  <si>
+    <t>cone</t>
+  </si>
+  <si>
+    <t>debris_tubs</t>
+  </si>
+  <si>
+    <t>partial_sample</t>
+  </si>
+  <si>
+    <t>sub_week</t>
+  </si>
+  <si>
+    <t>trap_start_date</t>
+  </si>
+  <si>
+    <t>trap_start_time</t>
+  </si>
+  <si>
+    <t>weather</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>trap_sample_type</t>
+  </si>
+  <si>
+    <t>diel</t>
+  </si>
+  <si>
+    <t>debris_type</t>
+  </si>
+  <si>
+    <t>gear_condition</t>
+  </si>
+  <si>
+    <t>The depth of the bottom of the cone</t>
+  </si>
+  <si>
+    <t>The average time per cone rotation (average of three rotations)</t>
+  </si>
+  <si>
+    <t>How long the General Oceanics meachanical flow meter (Oceanic ® Model 2030)was in the water taking a reading, used to calculate water velocity in front of the cone</t>
+  </si>
+  <si>
+    <t>River depth from inside of the river left (facing down stream) pontoon off crossbeam #2 (cone crossbeam)</t>
+  </si>
+  <si>
+    <t>River depth from directly in the center of cone off crossbeam #2 (cone crossbeam)</t>
+  </si>
+  <si>
+    <t>River depth from inside of the river right (facing down stream) pontoon off crossbeam #2 (cone crossbeam)</t>
+  </si>
+  <si>
+    <t>The number of 10-g tubs of debris removed from the trap during the sample period (volumetrically)</t>
+  </si>
+  <si>
+    <t>The date the trap was started sampling prior to the SampleDate (the beginning of the sample period)</t>
+  </si>
+  <si>
+    <t>The time the trap was started on the TrapStartDate (the beginning of the sample period)</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>02:40:00</t>
+  </si>
+  <si>
+    <t>20:36:00</t>
+  </si>
+  <si>
+    <t>trap</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>cubicFeetPerSecond</t>
+  </si>
+  <si>
+    <t>Was trap fishing in the thalweg at SampleDate and SampleTime. Levels = c(TRUE, FALSE)</t>
+  </si>
+  <si>
+    <t>Was the trap finshed at cone full-cone (1.0) or half-cone (0.5) setting. Levels = c(1, 0.5, NA)</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>Did the trap fish on the sample date. Levels = c(TRUE, FALSE)</t>
+  </si>
+  <si>
+    <t>Is it a partial sample? Levels = c(TRUE, FALSE)</t>
+  </si>
+  <si>
+    <t>If sample week has more than one efficiency, which part of week is sample from. Levels = c("A", "B", "", NA)</t>
+  </si>
+  <si>
+    <t>hh:mm:ss</t>
+  </si>
+  <si>
+    <t>2000-04-14</t>
+  </si>
+  <si>
+    <t>06:10:00</t>
+  </si>
+  <si>
+    <t>19:50:45</t>
+  </si>
+  <si>
+    <t>The weather conditions on the SampleDate and SampleTime. Levels = c("sunny", "precipitation", "partly cloudy", "overcast", NA, 
+"foggy", "")</t>
+  </si>
+  <si>
+    <t>The type of flow habitat the trap fished in. Levels = c("run", NA)</t>
+  </si>
+  <si>
+    <t>The type of sample regime. Levels = c("non-intensive", NA)</t>
+  </si>
+  <si>
+    <t>The time of day relative to the sun. Levels = c("day", NA)</t>
+  </si>
+  <si>
+    <t>The type of debris found in the live-box. Levels = c("Aquatic Vegetation, Leaves, and Sticks", "Leaves", NA, "Aquatic Vegetation and Sticks", 
+"Leaves and Sticks", "Aquatic Vegetation and Leaves", "Aquatic Vegetation"
 )</t>
   </si>
   <si>
-    <t>enumerated</t>
-  </si>
-  <si>
-    <t>ratio</t>
-  </si>
-  <si>
-    <t>revolutionsPerMinute</t>
-  </si>
-  <si>
-    <t>feetPerSecond</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>real</t>
+    <t>The condition of the trap on the SampleDate and SampleTime. Levels = c("Trap is fishing normal", "The cone is not rotating", NA, "There is a partial block in the cone", 
+"There is a total block in the cone")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -246,15 +380,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,321 +769,782 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="19.6640625" style="2"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16" style="4" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="4" customWidth="1"/>
-    <col min="14" max="1021" width="19.6640625" style="2"/>
-    <col min="1022" max="1024" width="8.33203125" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="19.6640625" style="2"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="1">
+        <v>25</v>
+      </c>
+      <c r="M6" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>985000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>997529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="1">
+        <v>300</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>18632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.67267580000000005</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4.7827500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="4">
-        <v>381</v>
-      </c>
-      <c r="M8" s="4">
-        <v>115577</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4">
-        <v>709829</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="L24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.67267580000000005</v>
-      </c>
-      <c r="M12" s="4">
-        <v>3.2650312000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.93</v>
-      </c>
-      <c r="M13" s="4">
-        <v>5.03</v>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1006" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1006" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1006" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459551C9-75A1-E84C-A005-C863B038BB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644DF060-E83F-E24B-9668-F788F691B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="840" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -106,9 +106,6 @@
     <t>turbidity</t>
   </si>
   <si>
-    <t>Sample Identifier</t>
-  </si>
-  <si>
     <t>Date sample was taken</t>
   </si>
   <si>
@@ -333,6 +330,9 @@
   <si>
     <t>The condition of the trap on the SampleDate and SampleTime. Levels = c("Trap is fishing normal", "The cone is not rotating", NA, "There is a partial block in the cone", 
 "There is a total block in the cone")</t>
+  </si>
+  <si>
+    <t>Sample identifier linking catch to trap table</t>
   </si>
 </sst>
 </file>
@@ -380,13 +380,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,16 +835,16 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -853,25 +852,25 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -879,25 +878,25 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -905,40 +904,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
       </c>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L6" s="1">
         <v>25</v>
@@ -949,25 +948,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L7" s="1">
         <v>0</v>
@@ -981,22 +980,22 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
@@ -1010,22 +1009,22 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1036,25 +1035,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1">
         <v>300</v>
@@ -1065,25 +1064,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1">
         <v>2.4</v>
@@ -1094,25 +1093,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1">
         <v>2.5</v>
@@ -1123,25 +1122,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="1">
         <v>2.6</v>
@@ -1152,59 +1151,59 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L16" s="1">
         <v>0</v>
@@ -1218,22 +1217,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L17" s="1">
         <v>0</v>
@@ -1244,25 +1243,25 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -1276,22 +1275,22 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L19" s="1">
         <v>0.67267580000000005</v>
@@ -1305,22 +1304,22 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="L20" s="1">
         <v>9.8000000000000004E-2</v>
@@ -1334,204 +1333,204 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
         <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M25" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>95</v>
+        <v>60</v>
+      </c>
+      <c r="B26" t="s">
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>99</v>
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>100</v>
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644DF060-E83F-E24B-9668-F788F691B97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5A187-46FE-AB45-BEEC-4B6BFCFF6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="840" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -771,7 +771,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,6 +933,9 @@
       <c r="E6" t="s">
         <v>38</v>
       </c>
+      <c r="F6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>81</v>
       </c>
@@ -962,6 +965,9 @@
       <c r="E7" t="s">
         <v>38</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G7" s="1" t="s">
         <v>82</v>
       </c>
@@ -991,6 +997,9 @@
       <c r="E8" t="s">
         <v>38</v>
       </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>83</v>
       </c>
@@ -1020,6 +1029,9 @@
       <c r="E9" t="s">
         <v>38</v>
       </c>
+      <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>83</v>
       </c>
@@ -1049,6 +1061,9 @@
       <c r="E10" t="s">
         <v>38</v>
       </c>
+      <c r="F10" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="1" t="s">
         <v>82</v>
       </c>
@@ -1078,6 +1093,9 @@
       <c r="E11" t="s">
         <v>38</v>
       </c>
+      <c r="F11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>81</v>
       </c>
@@ -1107,6 +1125,9 @@
       <c r="E12" t="s">
         <v>38</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>81</v>
       </c>
@@ -1136,6 +1157,9 @@
       <c r="E13" t="s">
         <v>38</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>81</v>
       </c>
@@ -1199,6 +1223,9 @@
       <c r="E16" t="s">
         <v>38</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>43</v>
       </c>
@@ -1228,6 +1255,9 @@
       <c r="E17" t="s">
         <v>38</v>
       </c>
+      <c r="F17" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1257,6 +1287,9 @@
       <c r="E18" t="s">
         <v>38</v>
       </c>
+      <c r="F18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>86</v>
       </c>
@@ -1286,6 +1319,9 @@
       <c r="E19" t="s">
         <v>38</v>
       </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1314,6 +1350,9 @@
       </c>
       <c r="E20" t="s">
         <v>38</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>45</v>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D5A187-46FE-AB45-BEEC-4B6BFCFF6460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1439AF74-CE6B-4149-9C6C-196079B9C8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -333,6 +333,15 @@
   </si>
   <si>
     <t>Sample identifier linking catch to trap table</t>
+  </si>
+  <si>
+    <t>baileys_efficiency</t>
+  </si>
+  <si>
+    <t>The estimated Bailey's efficiency.</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -768,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1570,6 +1579,38 @@
       </c>
       <c r="E31" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1439AF74-CE6B-4149-9C6C-196079B9C8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB8CE3-B10B-454D-88CE-AB844A83F38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17200" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -256,18 +256,9 @@
     <t>nominal</t>
   </si>
   <si>
-    <t>2020-07-06</t>
-  </si>
-  <si>
     <t>2023-01-02</t>
   </si>
   <si>
-    <t>02:40:00</t>
-  </si>
-  <si>
-    <t>20:36:00</t>
-  </si>
-  <si>
     <t>trap</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>Was trap fishing in the thalweg at SampleDate and SampleTime. Levels = c(TRUE, FALSE)</t>
   </si>
   <si>
-    <t>Was the trap finshed at cone full-cone (1.0) or half-cone (0.5) setting. Levels = c(1, 0.5, NA)</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -295,43 +283,12 @@
     <t>Is it a partial sample? Levels = c(TRUE, FALSE)</t>
   </si>
   <si>
-    <t>If sample week has more than one efficiency, which part of week is sample from. Levels = c("A", "B", "", NA)</t>
-  </si>
-  <si>
     <t>hh:mm:ss</t>
   </si>
   <si>
-    <t>2000-04-14</t>
-  </si>
-  <si>
     <t>06:10:00</t>
   </si>
   <si>
-    <t>19:50:45</t>
-  </si>
-  <si>
-    <t>The weather conditions on the SampleDate and SampleTime. Levels = c("sunny", "precipitation", "partly cloudy", "overcast", NA, 
-"foggy", "")</t>
-  </si>
-  <si>
-    <t>The type of flow habitat the trap fished in. Levels = c("run", NA)</t>
-  </si>
-  <si>
-    <t>The type of sample regime. Levels = c("non-intensive", NA)</t>
-  </si>
-  <si>
-    <t>The time of day relative to the sun. Levels = c("day", NA)</t>
-  </si>
-  <si>
-    <t>The type of debris found in the live-box. Levels = c("Aquatic Vegetation, Leaves, and Sticks", "Leaves", NA, "Aquatic Vegetation and Sticks", 
-"Leaves and Sticks", "Aquatic Vegetation and Leaves", "Aquatic Vegetation"
-)</t>
-  </si>
-  <si>
-    <t>The condition of the trap on the SampleDate and SampleTime. Levels = c("Trap is fishing normal", "The cone is not rotating", NA, "There is a partial block in the cone", 
-"There is a total block in the cone")</t>
-  </si>
-  <si>
     <t>Sample identifier linking catch to trap table</t>
   </si>
   <si>
@@ -342,6 +299,45 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>1998-09-01</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
+  </si>
+  <si>
+    <t>23:56:00</t>
+  </si>
+  <si>
+    <t>1998-08-31</t>
+  </si>
+  <si>
+    <t>23:45:00</t>
+  </si>
+  <si>
+    <t>If sample week has more than one efficiency, which part of week is sample from. Levels = c("A", "B", "C", NA)</t>
+  </si>
+  <si>
+    <t>The type of flow habitat the trap fished in. Levels =c("run", NA, "glide")</t>
+  </si>
+  <si>
+    <t>Was the trap finshed at cone full-cone (1.0) or half-cone (0.5) setting. Levels = c(NA, 1, 0.5, 0)</t>
+  </si>
+  <si>
+    <t>The weather conditions on the SampleDate and SampleTime. Levels = c("sunny", "overcast", "precipitation", NA, "foggy", "partly cloudy", "")</t>
+  </si>
+  <si>
+    <t>The type of sample regime. Levels = c("non-intensive", NA, "sunrise-sunset - Old value, not using Nov 2019", "random - Old value, not using Nov 2019", "intensive")</t>
+  </si>
+  <si>
+    <t>The time of day relative to the sun. Levels = c(NA, "night", "day", "presunrise", "postsunrise")</t>
+  </si>
+  <si>
+    <t>The type of debris found in the live-box. Levels = c("Aquatic Vegetation and Leaves", "Aquatic Vegetation, Leaves, and Sticks",  "Leaves", NA, "Aquatic Vegetation", "Leaves and Sticks", "Aquatic Vegetation and Sticks",  "Sticks")</t>
+  </si>
+  <si>
+    <t>The condition of the trap on the SampleDate and SampleTime. Levels = c("Trap is fishing normal", NA, "There is a partial block in the cone",  "The cone is not rotating", "There is a total block in the cone",  "Trap condition was not provided")</t>
   </si>
 </sst>
 </file>
@@ -779,22 +775,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="182.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="1022" max="1024" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -850,7 +848,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
         <v>36</v>
@@ -867,7 +865,7 @@
         <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>37</v>
@@ -876,10 +874,10 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -893,7 +891,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -902,10 +900,10 @@
         <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -913,13 +911,13 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
         <v>36</v>
@@ -937,7 +935,7 @@
         <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -946,13 +944,13 @@
         <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L6" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1">
         <v>39</v>
@@ -969,7 +967,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
@@ -978,7 +976,7 @@
         <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>46</v>
@@ -987,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>393</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1001,7 +999,7 @@
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -1010,7 +1008,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>46</v>
@@ -1019,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>985000</v>
+        <v>1099600</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1033,7 +1031,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
@@ -1042,7 +1040,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>46</v>
@@ -1051,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>997529</v>
+        <v>1196242</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -1065,7 +1063,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>38</v>
@@ -1074,16 +1072,16 @@
         <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="1">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="M10" s="1">
-        <v>3071</v>
+        <v>692800</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1097,7 +1095,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -1106,16 +1104,16 @@
         <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="1">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M11" s="1">
-        <v>5.8</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -1129,7 +1127,7 @@
         <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -1138,16 +1136,16 @@
         <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="1">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1">
-        <v>5.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -1161,7 +1159,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -1170,16 +1168,16 @@
         <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L13" s="1">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="M13" s="1">
-        <v>5.8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1187,13 +1185,13 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -1204,13 +1202,13 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
@@ -1227,7 +1225,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -1259,7 +1257,7 @@
         <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
         <v>38</v>
@@ -1277,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1">
-        <v>18632</v>
+        <v>1000290</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
@@ -1291,7 +1289,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -1300,7 +1298,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>46</v>
@@ -1309,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>23.5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1323,7 +1321,7 @@
         <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>38</v>
@@ -1338,10 +1336,10 @@
         <v>46</v>
       </c>
       <c r="L19" s="1">
-        <v>0.67267580000000005</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>4.7827500000000001</v>
+        <v>483.45</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1355,7 +1353,7 @@
         <v>42</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
         <v>38</v>
@@ -1370,10 +1368,10 @@
         <v>46</v>
       </c>
       <c r="L20" s="1">
-        <v>9.8000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>258</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1381,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>36</v>
@@ -1398,13 +1396,13 @@
         <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
         <v>75</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E22" t="s">
         <v>36</v>
@@ -1415,13 +1413,13 @@
         <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
         <v>75</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E23" t="s">
         <v>36</v>
@@ -1438,7 +1436,7 @@
         <v>37</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
         <v>37</v>
@@ -1447,10 +1445,10 @@
         <v>40</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
@@ -1464,19 +1462,19 @@
         <v>37</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E25" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1484,13 +1482,13 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -1501,13 +1499,13 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
         <v>36</v>
@@ -1518,13 +1516,13 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>36</v>
@@ -1535,13 +1533,13 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E29" t="s">
         <v>36</v>
@@ -1552,13 +1550,13 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E30" t="s">
         <v>36</v>
@@ -1569,13 +1567,13 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
         <v>36</v>
@@ -1583,16 +1581,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
         <v>38</v>
@@ -1601,7 +1599,7 @@
         <v>42</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>46</v>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB8CE3-B10B-454D-88CE-AB844A83F38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB238A23-21AB-0A44-9742-F210D01CB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -290,15 +290,6 @@
   </si>
   <si>
     <t>Sample identifier linking catch to trap table</t>
-  </si>
-  <si>
-    <t>baileys_efficiency</t>
-  </si>
-  <si>
-    <t>The estimated Bailey's efficiency.</t>
-  </si>
-  <si>
-    <t>percentage</t>
   </si>
   <si>
     <t>1998-09-01</t>
@@ -773,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,13 +830,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>77</v>
@@ -853,6 +844,7 @@
       <c r="E2" t="s">
         <v>36</v>
       </c>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -874,7 +866,7 @@
         <v>40</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>76</v>
@@ -900,100 +892,87 @@
         <v>39</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="1">
-        <v>3</v>
-      </c>
-      <c r="M6" s="1">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>42</v>
@@ -1008,24 +987,24 @@
         <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1">
-        <v>1099600</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
@@ -1040,7 +1019,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>46</v>
@@ -1049,15 +1028,15 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>1196242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
@@ -1072,24 +1051,24 @@
         <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>692800</v>
+        <v>1099600</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1104,24 +1083,24 @@
         <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>447</v>
+        <v>1196242</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
@@ -1136,24 +1115,24 @@
         <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M12" s="1">
-        <v>7</v>
+        <v>692800</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
         <v>42</v>
@@ -1177,113 +1156,113 @@
         <v>2</v>
       </c>
       <c r="M13" s="1">
-        <v>7</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1000290</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
@@ -1298,7 +1277,7 @@
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>46</v>
@@ -1307,15 +1286,15 @@
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -1330,7 +1309,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>46</v>
@@ -1339,15 +1318,15 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>483.45</v>
+        <v>1000290</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -1362,7 +1341,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>46</v>
@@ -1371,52 +1350,82 @@
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>2564</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>483.45</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2564</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>77</v>
@@ -1427,54 +1436,36 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -1482,7 +1473,7 @@
         <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C26" t="s">
         <v>75</v>
@@ -1499,7 +1490,7 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
         <v>75</v>
@@ -1516,7 +1507,7 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
         <v>75</v>
@@ -1533,7 +1524,7 @@
         <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>75</v>
@@ -1550,7 +1541,7 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>75</v>
@@ -1567,7 +1558,7 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
         <v>75</v>
@@ -1579,49 +1570,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1006" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1005" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1006" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1005" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1006" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1005" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB238A23-21AB-0A44-9742-F210D01CB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66D8F1-ECA2-A64A-8440-A7FB01855ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="101">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -91,9 +91,6 @@
     <t>trap_fishing</t>
   </si>
   <si>
-    <t>counter</t>
-  </si>
-  <si>
     <t>flow_start_meter</t>
   </si>
   <si>
@@ -121,12 +118,6 @@
     <t>Reading on the flow meter at end</t>
   </si>
   <si>
-    <t>start_counter</t>
-  </si>
-  <si>
-    <t>Reading on the rotation counter at the end of the trap visit</t>
-  </si>
-  <si>
     <t>Water velocity measured at trap</t>
   </si>
   <si>
@@ -256,9 +247,6 @@
     <t>nominal</t>
   </si>
   <si>
-    <t>2023-01-02</t>
-  </si>
-  <si>
     <t>trap</t>
   </si>
   <si>
@@ -329,6 +317,18 @@
   </si>
   <si>
     <t>The condition of the trap on the SampleDate and SampleTime. Levels = c("Trap is fishing normal", NA, "There is a partial block in the cone",  "The cone is not rotating", "There is a total block in the cone",  "Trap condition was not provided")</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>end_counter</t>
+  </si>
+  <si>
+    <t>ubc_site</t>
+  </si>
+  <si>
+    <t>Where the trap was located at time of operation. In Battle Creek there are two locations that are used depending on flow conditions. Levels = c("Upper, "Lower")</t>
   </si>
 </sst>
 </file>
@@ -766,20 +766,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="182.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="200.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -833,16 +833,16 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="L2" s="3"/>
     </row>
@@ -851,25 +851,25 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -877,77 +877,77 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="L5" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -955,42 +955,42 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -1001,28 +1001,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1033,28 +1033,28 @@
     </row>
     <row r="10" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1065,31 +1065,31 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="M11" s="1">
         <v>1196242</v>
@@ -1097,28 +1097,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -1129,28 +1129,28 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L13" s="1">
         <v>2</v>
@@ -1161,28 +1161,28 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14" s="1">
         <v>2</v>
@@ -1193,28 +1193,28 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L15" s="1">
         <v>2</v>
@@ -1225,132 +1225,132 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
       </c>
       <c r="M18" s="1">
-        <v>0</v>
+        <v>1000290</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>1000290</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
       </c>
       <c r="M20" s="1">
-        <v>52</v>
+        <v>483.45</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
@@ -1358,216 +1358,201 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
       </c>
       <c r="M21" s="1">
-        <v>483.45</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <v>2564</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F66D8F1-ECA2-A64A-8440-A7FB01855ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7125B65-6E12-1E4F-8813-99B105F6AEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,9 +142,6 @@
     <t>YYYY-MM-DD</t>
   </si>
   <si>
-    <t>Code referring to the station where the sample was taken. Levels = c("UBC", "LCC", "UCC")</t>
-  </si>
-  <si>
     <t>ratio</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>Where the trap was located at time of operation. In Battle Creek there are two locations that are used depending on flow conditions. Levels = c("Upper, "Lower")</t>
+  </si>
+  <si>
+    <t>Code referring to the station where the sample was taken. Levels = c("upper battle creek", "lower battle creek", "lower clear creek",  "upper clear creek", NA, "power house battle creek")</t>
   </si>
 </sst>
 </file>
@@ -767,7 +767,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -833,13 +833,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -857,7 +857,7 @@
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -866,10 +866,10 @@
         <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -883,7 +883,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>34</v>
@@ -892,24 +892,24 @@
         <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
@@ -918,36 +918,36 @@
         <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -955,13 +955,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -969,28 +969,28 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -1001,28 +1001,28 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1">
         <v>0</v>
@@ -1039,22 +1039,22 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L10" s="1">
         <v>0</v>
@@ -1071,22 +1071,22 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11" s="1">
         <v>73</v>
@@ -1097,28 +1097,28 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
@@ -1129,28 +1129,28 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="1">
         <v>2</v>
@@ -1161,28 +1161,28 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1">
         <v>2</v>
@@ -1193,28 +1193,28 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" s="1">
         <v>2</v>
@@ -1225,16 +1225,16 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -1242,16 +1242,16 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -1259,28 +1259,28 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="1">
         <v>0</v>
@@ -1291,28 +1291,28 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L19" s="1">
         <v>0</v>
@@ -1329,22 +1329,22 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" s="1">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="L21" s="1">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -1404,16 +1404,16 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -1421,16 +1421,16 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -1438,16 +1438,16 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
         <v>99</v>
       </c>
-      <c r="B25" t="s">
-        <v>100</v>
-      </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -1455,16 +1455,16 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -1472,16 +1472,16 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -1489,16 +1489,16 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -1506,16 +1506,16 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -1523,16 +1523,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
@@ -1540,16 +1540,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/edi-battle-clear-rst/data-raw/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7125B65-6E12-1E4F-8813-99B105F6AEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE98C9F-E648-7E45-BFE6-E868501A86A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30080" yWindow="500" windowWidth="32860" windowHeight="19180" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -271,9 +271,6 @@
     <t>hh:mm:ss</t>
   </si>
   <si>
-    <t>06:10:00</t>
-  </si>
-  <si>
     <t>Sample identifier linking catch to trap table</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>The condition of the trap on the SampleDate and SampleTime. Levels = c("Trap is fishing normal", NA, "There is a partial block in the cone",  "The cone is not rotating", "There is a total block in the cone",  "Trap condition was not provided")</t>
   </si>
   <si>
-    <t>2022-09-30</t>
-  </si>
-  <si>
     <t>end_counter</t>
   </si>
   <si>
@@ -329,6 +323,12 @@
   </si>
   <si>
     <t>Code referring to the station where the sample was taken. Levels = c("upper battle creek", "lower battle creek", "lower clear creek",  "upper clear creek", NA, "power house battle creek")</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2024-06-05</t>
   </si>
 </sst>
 </file>
@@ -468,9 +468,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -508,7 +508,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -614,7 +614,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,7 +756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -767,13 +767,13 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="200.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
@@ -833,7 +833,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
@@ -866,10 +866,10 @@
         <v>37</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -892,10 +892,10 @@
         <v>36</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -918,10 +918,10 @@
         <v>37</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -944,10 +944,10 @@
         <v>80</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -955,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -1095,7 +1095,7 @@
         <v>1196242</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="L13" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="M13" s="1">
         <v>447</v>
@@ -1245,7 +1245,7 @@
         <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
         <v>71</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -1318,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>52</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
@@ -1424,7 +1424,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>71</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -1458,7 +1458,7 @@
         <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>71</v>
@@ -1475,7 +1475,7 @@
         <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>71</v>
@@ -1492,7 +1492,7 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" t="s">
         <v>71</v>
@@ -1509,7 +1509,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
@@ -1526,7 +1526,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
         <v>71</v>
@@ -1543,7 +1543,7 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
         <v>71</v>

--- a/data-raw/metadata/trap-metadata.xlsx
+++ b/data-raw/metadata/trap-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyvizek/code/edi-battle-clear-rst/data-raw/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE98C9F-E648-7E45-BFE6-E868501A86A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0F29C-F31F-484E-8899-2630C2F83A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30080" yWindow="500" windowWidth="32860" windowHeight="19180" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43060" yWindow="4320" windowWidth="32860" windowHeight="19180" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="100">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -325,10 +325,7 @@
     <t>Code referring to the station where the sample was taken. Levels = c("upper battle creek", "lower battle creek", "lower clear creek",  "upper clear creek", NA, "power house battle creek")</t>
   </si>
   <si>
-    <t>2024-06-06</t>
-  </si>
-  <si>
-    <t>2024-06-05</t>
+    <t>2025-07-09</t>
   </si>
 </sst>
 </file>
@@ -767,7 +764,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -921,7 +918,7 @@
         <v>85</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
